--- a/GAKUEN問題レスト.xlsx
+++ b/GAKUEN問題レスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>1.所属学科組織時間設定はだこですか？</t>
     <rPh sb="2" eb="4">
@@ -60,6 +60,31 @@
   </si>
   <si>
     <t>5.カリキュラム一括コピー：エラー：コピー元、コピー先に同条件を設定することはできません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.どのようにCSVを作りますか?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.異動先に配当されていない資格(20001)がある為、登録できません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.2009.1カリキュラム学科組織配当 エラー：指定したカリキュラム学科組織は上位のカリキュラム学科組織が学籍テーブルに存在するため登録できません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.CSV入力正常、でも、データを更新ない。</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -109,22 +134,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,49 +458,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
@@ -487,19 +515,71 @@
       <c r="H8" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A6:H6"/>

--- a/GAKUEN問題レスト.xlsx
+++ b/GAKUEN問題レスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1.所属学科組織時間設定はだこですか？</t>
     <rPh sb="2" eb="4">
@@ -84,6 +84,13 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.授業登録条件指定の授業開始年度を選択ない。</t>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -137,6 +144,12 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -146,13 +159,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,124 +465,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A16:H16"/>

--- a/GAKUEN問題レスト.xlsx
+++ b/GAKUEN問題レスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>1.所属学科組織時間設定はだこですか？</t>
     <rPh sb="2" eb="4">
@@ -93,23 +93,26 @@
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.第11回CSVを出力null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -143,10 +146,10 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -163,7 +166,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -179,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A22" sqref="A22:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -485,7 +488,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -497,7 +500,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="26.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -509,19 +512,19 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -533,78 +536,91 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="28.5" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GAKUEN問題レスト.xlsx
+++ b/GAKUEN問題レスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>1.所属学科組織時間設定はだこですか？</t>
     <rPh sb="2" eb="4">
@@ -96,23 +96,59 @@
   </si>
   <si>
     <t>11.第11回CSVを出力null</t>
+  </si>
+  <si>
+    <t>12.第13回ＤＢアクセスに失敗しました</t>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13.卒業判断結果修正：サーバーでエラーが発生いたしました。</t>
+    <rPh sb="3" eb="5">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.証明書を作りますか?</t>
+    <rPh sb="3" eb="5">
+      <t>ショウメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -150,9 +186,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -164,9 +197,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -182,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,51 +504,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -524,31 +560,31 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -560,7 +596,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="28.5" customHeight="1">
+    <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -572,7 +608,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -584,7 +620,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -596,7 +632,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -608,8 +644,47 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:H4"/>
